--- a/documentation/project4_hours.xlsx
+++ b/documentation/project4_hours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/landen/Desktop/Classes/Spring22/eecs448/Project4/ds_visualizerProject4/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFCDD39-A7B7-5640-A0CE-AE8A639C2F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E011965-D287-784F-999F-C60112E3BD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31100" yWindow="2200" windowWidth="27720" windowHeight="15840" xr2:uid="{095FDC74-654F-AD46-9E96-47D17C496F71}"/>
+    <workbookView xWindow="740" yWindow="1600" windowWidth="27720" windowHeight="15840" xr2:uid="{095FDC74-654F-AD46-9E96-47D17C496F71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Hour Tracking - Project 4</t>
+  </si>
+  <si>
+    <t>Landen</t>
   </si>
 </sst>
 </file>
@@ -99,10 +102,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,17 +423,17 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -455,10 +458,26 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44666</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44668</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
@@ -488,12 +507,12 @@
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C15">
         <f>SUM(C3:C14)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">

--- a/documentation/project4_hours.xlsx
+++ b/documentation/project4_hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/landen/Desktop/Classes/Spring22/eecs448/Project4/ds_visualizerProject4/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E011965-D287-784F-999F-C60112E3BD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4830679-0F2C-E147-B16A-D318C2B53246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="1600" windowWidth="27720" windowHeight="15840" xr2:uid="{095FDC74-654F-AD46-9E96-47D17C496F71}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -423,7 +423,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,7 +480,15 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44670</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
@@ -512,7 +520,7 @@
       </c>
       <c r="C15">
         <f>SUM(C3:C14)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
